--- a/资产负债表/688608.xlsx
+++ b/资产负债表/688608.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -789,47 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>716237575.2</v>
+        <v>630859851.48</v>
       </c>
       <c r="P2" t="n">
-        <v>9922681.810000001</v>
+        <v>7302555.71</v>
       </c>
       <c r="Q2" t="n">
-        <v>440774821.62</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>418321378.92</v>
+      </c>
+      <c r="R2" t="n">
+        <v>519.1283094967</v>
+      </c>
       <c r="S2" t="n">
-        <v>6124399.12</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+        <v>10217604.01</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-58.2336493785</v>
+      </c>
       <c r="U2" t="n">
-        <v>213727934.34</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
+        <v>152096395.06</v>
+      </c>
+      <c r="V2" t="n">
+        <v>79.2480044393</v>
+      </c>
       <c r="W2" t="n">
-        <v>137811075.74</v>
+        <v>108806504.56</v>
       </c>
       <c r="X2" t="n">
-        <v>120466701.71</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+        <v>80423917.98999999</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-8.053399364900001</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>5736614.13</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1326.288159473</v>
+      </c>
       <c r="AB2" t="n">
-        <v>578426499.46</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+        <v>522053346.92</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>357.6488827862</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>192.4091901108</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>7.0164789561</v>
+      </c>
       <c r="AF2" t="n">
-        <v>495.6396296461</v>
+        <v>556.7801534562</v>
       </c>
       <c r="AG2" t="n">
-        <v>19.2409726202</v>
+        <v>17.2473338262</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
